--- a/results/I3_N5_M2_T15_C200_DepCentral_s1_mean_res.xlsx
+++ b/results/I3_N5_M2_T15_C200_DepCentral_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1124.24968638821</v>
+        <v>325.9596863901649</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05700016021728516</v>
+        <v>0.03900003433227539</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>804.7399999980448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295.55</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>113.9079999999939</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>43.19900000002733</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>126.0459999999759</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>181.1499999999011</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>280.4739999998353</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>126.0459999999393</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>280.4739999998046</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>80.47399999980448</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.534</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="3">
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.743</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.278</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
@@ -1228,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,17 +1253,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
